--- a/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_total.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T304"/>
+  <dimension ref="A1:T262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15673,3534 +15673,6 @@
       <c r="S262" t="inlineStr"/>
       <c r="T262" t="inlineStr"/>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>CHEMBL2151412</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>1</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G263" t="n">
-        <v>452.52</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>6</v>
-      </c>
-      <c r="J263" t="n">
-        <v>3</v>
-      </c>
-      <c r="K263" t="n">
-        <v>6</v>
-      </c>
-      <c r="L263" t="n">
-        <v>4</v>
-      </c>
-      <c r="M263" t="n">
-        <v>83.36</v>
-      </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q263" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R263" t="inlineStr">
-        <is>
-          <t>CHEMBL2156012</t>
-        </is>
-      </c>
-      <c r="S263" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta-1 by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T263" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>CHEMBL430694</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>1</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G264" t="n">
-        <v>397.43</v>
-      </c>
-      <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>4</v>
-      </c>
-      <c r="J264" t="n">
-        <v>5</v>
-      </c>
-      <c r="K264" t="n">
-        <v>5</v>
-      </c>
-      <c r="L264" t="n">
-        <v>4</v>
-      </c>
-      <c r="M264" t="n">
-        <v>84.22</v>
-      </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P264" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q264" t="n">
-        <v>270</v>
-      </c>
-      <c r="R264" t="inlineStr">
-        <is>
-          <t>CHEMBL759475</t>
-        </is>
-      </c>
-      <c r="S264" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against human protein kinase C-betaII using histone as substrate</t>
-        </is>
-      </c>
-      <c r="T264" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>CHEMBL4128457</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>1</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G265" t="n">
-        <v>571.62</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>6</v>
-      </c>
-      <c r="J265" t="n">
-        <v>6</v>
-      </c>
-      <c r="K265" t="n">
-        <v>6</v>
-      </c>
-      <c r="L265" t="n">
-        <v>3</v>
-      </c>
-      <c r="M265" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O265" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P265" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q265" t="n">
-        <v>36</v>
-      </c>
-      <c r="R265" t="inlineStr">
-        <is>
-          <t>CHEMBL4121777</t>
-        </is>
-      </c>
-      <c r="S265" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta2 measured at apparent ATP Km level</t>
-        </is>
-      </c>
-      <c r="T265" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>CHEMBL4102228</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>1</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G266" t="n">
-        <v>429.91</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3</v>
-      </c>
-      <c r="J266" t="n">
-        <v>4</v>
-      </c>
-      <c r="K266" t="n">
-        <v>5</v>
-      </c>
-      <c r="L266" t="n">
-        <v>4</v>
-      </c>
-      <c r="M266" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P266" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q266" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R266" t="inlineStr">
-        <is>
-          <t>CHEMBL4004541</t>
-        </is>
-      </c>
-      <c r="S266" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) after 60 mins in presence of [gamma33P]ATP by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T266" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>CHEMBL362558</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>1</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G267" t="n">
-        <v>512.55</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4</v>
-      </c>
-      <c r="J267" t="n">
-        <v>2</v>
-      </c>
-      <c r="K267" t="n">
-        <v>7</v>
-      </c>
-      <c r="L267" t="n">
-        <v>4</v>
-      </c>
-      <c r="M267" t="n">
-        <v>91.95</v>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P267" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q267" t="n">
-        <v>420</v>
-      </c>
-      <c r="R267" t="inlineStr">
-        <is>
-          <t>CHEMBL829308</t>
-        </is>
-      </c>
-      <c r="S267" t="inlineStr">
-        <is>
-          <t>Inhibition of human Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T267" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>CHEMBL2147538</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>1</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>293.37</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5</v>
-      </c>
-      <c r="J268" t="n">
-        <v>4</v>
-      </c>
-      <c r="K268" t="n">
-        <v>3</v>
-      </c>
-      <c r="L268" t="n">
-        <v>3</v>
-      </c>
-      <c r="M268" t="n">
-        <v>76.72</v>
-      </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P268" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q268" t="n">
-        <v>942</v>
-      </c>
-      <c r="R268" t="inlineStr">
-        <is>
-          <t>CHEMBL2150521</t>
-        </is>
-      </c>
-      <c r="S268" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PKCbeta1 assessed as [33P]-ATP incorporation into tridecapeptide substrate after 60 mins by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T268" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>CHEMBL350335</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>1</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G269" t="n">
-        <v>460.58</v>
-      </c>
-      <c r="H269" t="n">
-        <v>3</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4</v>
-      </c>
-      <c r="J269" t="n">
-        <v>6</v>
-      </c>
-      <c r="K269" t="n">
-        <v>5</v>
-      </c>
-      <c r="L269" t="n">
-        <v>4</v>
-      </c>
-      <c r="M269" t="n">
-        <v>100.97</v>
-      </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O269" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P269" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q269" t="n">
-        <v>3</v>
-      </c>
-      <c r="R269" t="inlineStr">
-        <is>
-          <t>CHEMBL761751</t>
-        </is>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T269" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>CHEMBL365656</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>1</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>388.47</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>4</v>
-      </c>
-      <c r="J270" t="n">
-        <v>7</v>
-      </c>
-      <c r="K270" t="n">
-        <v>4</v>
-      </c>
-      <c r="L270" t="n">
-        <v>3</v>
-      </c>
-      <c r="M270" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q270" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="R270" t="inlineStr">
-        <is>
-          <t>CHEMBL3063098</t>
-        </is>
-      </c>
-      <c r="S270" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T270" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>CHEMBL388978</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>1</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>466.54</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>4</v>
-      </c>
-      <c r="J271" t="n">
-        <v>2</v>
-      </c>
-      <c r="K271" t="n">
-        <v>8</v>
-      </c>
-      <c r="L271" t="n">
-        <v>5</v>
-      </c>
-      <c r="M271" t="n">
-        <v>69.45</v>
-      </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q271" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="R271" t="inlineStr">
-        <is>
-          <t>CHEMBL768280</t>
-        </is>
-      </c>
-      <c r="S271" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T271" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>CHEMBL80525</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>1</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G272" t="n">
-        <v>547.52</v>
-      </c>
-      <c r="H272" t="n">
-        <v>6</v>
-      </c>
-      <c r="I272" t="n">
-        <v>10</v>
-      </c>
-      <c r="J272" t="n">
-        <v>7</v>
-      </c>
-      <c r="K272" t="n">
-        <v>5</v>
-      </c>
-      <c r="L272" t="n">
-        <v>3</v>
-      </c>
-      <c r="M272" t="n">
-        <v>190.69</v>
-      </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P272" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q272" t="n">
-        <v>40</v>
-      </c>
-      <c r="R272" t="inlineStr">
-        <is>
-          <t>CHEMBL768098</t>
-        </is>
-      </c>
-      <c r="S272" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against recombinant human Protein kinase C beta 2 isozyme</t>
-        </is>
-      </c>
-      <c r="T272" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>CHEMBL2046643</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>1</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G273" t="n">
-        <v>407.44</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>6</v>
-      </c>
-      <c r="J273" t="n">
-        <v>5</v>
-      </c>
-      <c r="K273" t="n">
-        <v>3</v>
-      </c>
-      <c r="L273" t="n">
-        <v>2</v>
-      </c>
-      <c r="M273" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P273" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q273" t="n">
-        <v>260</v>
-      </c>
-      <c r="R273" t="inlineStr">
-        <is>
-          <t>CHEMBL2049856</t>
-        </is>
-      </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta</t>
-        </is>
-      </c>
-      <c r="T273" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>CHEMBL440201</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>1</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G274" t="n">
-        <v>395.59</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>2</v>
-      </c>
-      <c r="J274" t="n">
-        <v>8</v>
-      </c>
-      <c r="K274" t="n">
-        <v>3</v>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O274" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P274" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q274" t="n">
-        <v>701</v>
-      </c>
-      <c r="R274" t="inlineStr">
-        <is>
-          <t>CHEMBL823901</t>
-        </is>
-      </c>
-      <c r="S274" t="inlineStr">
-        <is>
-          <t>Inhibition of [3H]-phorbol 12,13-dibutyrate (PDBu) binding to human recombinant protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T274" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>CHEMBL3901971</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>1</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G275" t="n">
-        <v>458.57</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>4</v>
-      </c>
-      <c r="J275" t="n">
-        <v>4</v>
-      </c>
-      <c r="K275" t="n">
-        <v>5</v>
-      </c>
-      <c r="L275" t="n">
-        <v>3</v>
-      </c>
-      <c r="M275" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P275" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q275" t="n">
-        <v>189</v>
-      </c>
-      <c r="R275" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T275" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>CHEMBL3662782</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>1</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G276" t="n">
-        <v>437.55</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>5</v>
-      </c>
-      <c r="J276" t="n">
-        <v>3</v>
-      </c>
-      <c r="K276" t="n">
-        <v>5</v>
-      </c>
-      <c r="L276" t="n">
-        <v>2</v>
-      </c>
-      <c r="M276" t="n">
-        <v>97.45999999999999</v>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P276" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q276" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="R276" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T276" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>CHEMBL3667490</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>1</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
-        <v>527.67</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>7</v>
-      </c>
-      <c r="J277" t="n">
-        <v>5</v>
-      </c>
-      <c r="K277" t="n">
-        <v>5</v>
-      </c>
-      <c r="L277" t="n">
-        <v>2</v>
-      </c>
-      <c r="M277" t="n">
-        <v>119.83</v>
-      </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P277" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q277" t="n">
-        <v>20</v>
-      </c>
-      <c r="R277" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T277" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>CHEMBL3662872</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>1</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G278" t="n">
-        <v>468.36</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>4</v>
-      </c>
-      <c r="J278" t="n">
-        <v>3</v>
-      </c>
-      <c r="K278" t="n">
-        <v>4</v>
-      </c>
-      <c r="L278" t="n">
-        <v>2</v>
-      </c>
-      <c r="M278" t="n">
-        <v>81.33</v>
-      </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P278" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q278" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="R278" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T278" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>CHEMBL27768</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>1</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G279" t="n">
-        <v>504.62</v>
-      </c>
-      <c r="H279" t="n">
-        <v>3</v>
-      </c>
-      <c r="I279" t="n">
-        <v>8</v>
-      </c>
-      <c r="J279" t="n">
-        <v>7</v>
-      </c>
-      <c r="K279" t="n">
-        <v>4</v>
-      </c>
-      <c r="L279" t="n">
-        <v>0</v>
-      </c>
-      <c r="M279" t="n">
-        <v>130.36</v>
-      </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P279" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q279" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R279" t="inlineStr">
-        <is>
-          <t>CHEMBL768283</t>
-        </is>
-      </c>
-      <c r="S279" t="inlineStr">
-        <is>
-          <t>Displacement of 3[H]PDBu from Protein kinase C beta C1a domain</t>
-        </is>
-      </c>
-      <c r="T279" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>CHEMBL1080994</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>0</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G280" t="n">
-        <v>512.64</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>6</v>
-      </c>
-      <c r="J280" t="n">
-        <v>6</v>
-      </c>
-      <c r="K280" t="n">
-        <v>5</v>
-      </c>
-      <c r="L280" t="n">
-        <v>4</v>
-      </c>
-      <c r="M280" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P280" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q280" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R280" t="inlineStr">
-        <is>
-          <t>CHEMBL1114002</t>
-        </is>
-      </c>
-      <c r="S280" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta</t>
-        </is>
-      </c>
-      <c r="T280" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>CHEMBL1929247</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>0</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>4</v>
-      </c>
-      <c r="J281" t="n">
-        <v>5</v>
-      </c>
-      <c r="K281" t="n">
-        <v>2</v>
-      </c>
-      <c r="L281" t="n">
-        <v>0</v>
-      </c>
-      <c r="M281" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P281" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q281" t="n">
-        <v>16</v>
-      </c>
-      <c r="R281" t="inlineStr">
-        <is>
-          <t>CHEMBL1929909</t>
-        </is>
-      </c>
-      <c r="S281" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T281" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>CHEMBL398606</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>CC(C)NCc1ccc(Nc2cc(-c3ccc(-c4ccc(O)cc4O)cc3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
-        <v>414.51</v>
-      </c>
-      <c r="H282" t="n">
-        <v>5</v>
-      </c>
-      <c r="I282" t="n">
-        <v>5</v>
-      </c>
-      <c r="J282" t="n">
-        <v>7</v>
-      </c>
-      <c r="K282" t="n">
-        <v>4</v>
-      </c>
-      <c r="L282" t="n">
-        <v>4</v>
-      </c>
-      <c r="M282" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P282" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q282" t="n">
-        <v>16</v>
-      </c>
-      <c r="R282" t="inlineStr">
-        <is>
-          <t>CHEMBL898057</t>
-        </is>
-      </c>
-      <c r="S282" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta at 1 uM</t>
-        </is>
-      </c>
-      <c r="T282" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>CHEMBL183906</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)/C(=C/c2cccc(C(F)(F)F)c2)S1</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
-        <v>273.23</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3</v>
-      </c>
-      <c r="J283" t="n">
-        <v>1</v>
-      </c>
-      <c r="K283" t="n">
-        <v>2</v>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="n">
-        <v>46.17</v>
-      </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O283" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P283" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q283" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R283" t="inlineStr">
-        <is>
-          <t>CHEMBL1012714</t>
-        </is>
-      </c>
-      <c r="S283" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T283" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>CHEMBL2333112</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>0</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
-        <v>307.36</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>5</v>
-      </c>
-      <c r="J284" t="n">
-        <v>4</v>
-      </c>
-      <c r="K284" t="n">
-        <v>3</v>
-      </c>
-      <c r="L284" t="n">
-        <v>3</v>
-      </c>
-      <c r="M284" t="n">
-        <v>93.79000000000001</v>
-      </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P284" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q284" t="n">
-        <v>15</v>
-      </c>
-      <c r="R284" t="inlineStr">
-        <is>
-          <t>CHEMBL2345064</t>
-        </is>
-      </c>
-      <c r="S284" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCbeta1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T284" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>CHEMBL3719135</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@H]1[C@@H]2CN(C3COC3)C[C@@H]21</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2cnc(N)c(OC(F)(F)F)c2)cc1[C@@H]1[C@H]2CN(C3COC3)C[C@H]21</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
-        <v>423.44</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>6</v>
-      </c>
-      <c r="J285" t="n">
-        <v>5</v>
-      </c>
-      <c r="K285" t="n">
-        <v>5</v>
-      </c>
-      <c r="L285" t="n">
-        <v>2</v>
-      </c>
-      <c r="M285" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q285" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R285" t="inlineStr">
-        <is>
-          <t>CHEMBL4120069</t>
-        </is>
-      </c>
-      <c r="S285" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) at 1 uM by FRET assay relative to control</t>
-        </is>
-      </c>
-      <c r="T285" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>CHEMBL1644620</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>O=c1[nH]nc(-c2ccnc(NC3CCOCC3)c2)n1-c1ccc2ccccc2c1</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G286" t="n">
-        <v>387.44</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>5</v>
-      </c>
-      <c r="J286" t="n">
-        <v>4</v>
-      </c>
-      <c r="K286" t="n">
-        <v>5</v>
-      </c>
-      <c r="L286" t="n">
-        <v>4</v>
-      </c>
-      <c r="M286" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P286" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q286" t="n">
-        <v>11</v>
-      </c>
-      <c r="R286" t="inlineStr">
-        <is>
-          <t>CHEMBL1648816</t>
-        </is>
-      </c>
-      <c r="S286" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCB1 at 10 uM after 60 mins by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T286" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>CHEMBL2376158</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>0</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>C[C@@H](NC(=O)c1c[nH]c2ncc(-c3ncn4cc(F)cc(F)c34)nc12)C(=O)N1CC(C#N)C1</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G287" t="n">
-        <v>450.41</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>6</v>
-      </c>
-      <c r="J287" t="n">
-        <v>4</v>
-      </c>
-      <c r="K287" t="n">
-        <v>5</v>
-      </c>
-      <c r="L287" t="n">
-        <v>4</v>
-      </c>
-      <c r="M287" t="n">
-        <v>132.07</v>
-      </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P287" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q287" t="n">
-        <v>9</v>
-      </c>
-      <c r="R287" t="inlineStr">
-        <is>
-          <t>CHEMBL2378210</t>
-        </is>
-      </c>
-      <c r="S287" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T287" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>CHEMBL1682017</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G288" t="n">
-        <v>369.84</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>4</v>
-      </c>
-      <c r="J288" t="n">
-        <v>4</v>
-      </c>
-      <c r="K288" t="n">
-        <v>4</v>
-      </c>
-      <c r="L288" t="n">
-        <v>4</v>
-      </c>
-      <c r="M288" t="n">
-        <v>83.56</v>
-      </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P288" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q288" t="n">
-        <v>3</v>
-      </c>
-      <c r="R288" t="inlineStr">
-        <is>
-          <t>CHEMBL1686797</t>
-        </is>
-      </c>
-      <c r="S288" t="inlineStr">
-        <is>
-          <t>Inhibition of PRKCB1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T288" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>CHEMBL1516890</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>0</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Cn1cc(C=C2C(=O)Nc3cccnc32)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>2</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1</v>
-      </c>
-      <c r="K289" t="n">
-        <v>4</v>
-      </c>
-      <c r="L289" t="n">
-        <v>3</v>
-      </c>
-      <c r="M289" t="n">
-        <v>46.92</v>
-      </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P289" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q289" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R289" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S289" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T289" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>CHEMBL157258</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
-        <v>383.62</v>
-      </c>
-      <c r="H290" t="n">
-        <v>3</v>
-      </c>
-      <c r="I290" t="n">
-        <v>4</v>
-      </c>
-      <c r="J290" t="n">
-        <v>3</v>
-      </c>
-      <c r="K290" t="n">
-        <v>3</v>
-      </c>
-      <c r="L290" t="n">
-        <v>2</v>
-      </c>
-      <c r="M290" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q290" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R290" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S290" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T290" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>CHEMBL1794070</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>0</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G291" t="n">
-        <v>511.05</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>5</v>
-      </c>
-      <c r="J291" t="n">
-        <v>7</v>
-      </c>
-      <c r="K291" t="n">
-        <v>5</v>
-      </c>
-      <c r="L291" t="n">
-        <v>4</v>
-      </c>
-      <c r="M291" t="n">
-        <v>82.61</v>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q291" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="R291" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S291" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T291" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>CHEMBL185710</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>0</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G292" t="n">
-        <v>230.23</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>6</v>
-      </c>
-      <c r="J292" t="n">
-        <v>2</v>
-      </c>
-      <c r="K292" t="n">
-        <v>3</v>
-      </c>
-      <c r="L292" t="n">
-        <v>3</v>
-      </c>
-      <c r="M292" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P292" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q292" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R292" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S292" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T292" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G293" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>6</v>
-      </c>
-      <c r="J293" t="n">
-        <v>6</v>
-      </c>
-      <c r="K293" t="n">
-        <v>5</v>
-      </c>
-      <c r="L293" t="n">
-        <v>5</v>
-      </c>
-      <c r="M293" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q293" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R293" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S293" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T293" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>CHEMBL1909396</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>0</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G294" t="n">
-        <v>537.47</v>
-      </c>
-      <c r="H294" t="n">
-        <v>3</v>
-      </c>
-      <c r="I294" t="n">
-        <v>6</v>
-      </c>
-      <c r="J294" t="n">
-        <v>5</v>
-      </c>
-      <c r="K294" t="n">
-        <v>5</v>
-      </c>
-      <c r="L294" t="n">
-        <v>5</v>
-      </c>
-      <c r="M294" t="n">
-        <v>115.3</v>
-      </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P294" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q294" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="R294" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S294" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T294" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>CHEMBL1909403</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G295" t="n">
-        <v>431.39</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>5</v>
-      </c>
-      <c r="J295" t="n">
-        <v>6</v>
-      </c>
-      <c r="K295" t="n">
-        <v>4</v>
-      </c>
-      <c r="L295" t="n">
-        <v>4</v>
-      </c>
-      <c r="M295" t="n">
-        <v>75.34</v>
-      </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q295" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="R295" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S295" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T295" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>CHEMBL202891</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
-        <v>328.38</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>4</v>
-      </c>
-      <c r="J296" t="n">
-        <v>4</v>
-      </c>
-      <c r="K296" t="n">
-        <v>4</v>
-      </c>
-      <c r="L296" t="n">
-        <v>4</v>
-      </c>
-      <c r="M296" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q296" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R296" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S296" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T296" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>CHEMBL204934</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>0</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G297" t="n">
-        <v>345.37</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>6</v>
-      </c>
-      <c r="J297" t="n">
-        <v>5</v>
-      </c>
-      <c r="K297" t="n">
-        <v>4</v>
-      </c>
-      <c r="L297" t="n">
-        <v>4</v>
-      </c>
-      <c r="M297" t="n">
-        <v>90.11</v>
-      </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q297" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="R297" t="inlineStr">
-        <is>
-          <t>CHEMBL1961900</t>
-        </is>
-      </c>
-      <c r="S297" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>CHEMBL2062289</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>CCN1CCC(CC(=O)Nc2n[nH]c3nnc(-c4cccc(F)c4F)cc23)CC1</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G298" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>5</v>
-      </c>
-      <c r="J298" t="n">
-        <v>5</v>
-      </c>
-      <c r="K298" t="n">
-        <v>4</v>
-      </c>
-      <c r="L298" t="n">
-        <v>3</v>
-      </c>
-      <c r="M298" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q298" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R298" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S298" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>CHEMBL3330401</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>COC(C(=O)Nc1ccc2[nH]nc(-c3cccc(S(N)(=O)=O)c3)c2c1)c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G299" t="n">
-        <v>436.49</v>
-      </c>
-      <c r="H299" t="n">
-        <v>3</v>
-      </c>
-      <c r="I299" t="n">
-        <v>5</v>
-      </c>
-      <c r="J299" t="n">
-        <v>6</v>
-      </c>
-      <c r="K299" t="n">
-        <v>4</v>
-      </c>
-      <c r="L299" t="n">
-        <v>4</v>
-      </c>
-      <c r="M299" t="n">
-        <v>127.17</v>
-      </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q299" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R299" t="inlineStr">
-        <is>
-          <t>CHEMBL3369108</t>
-        </is>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta1 at 1 uM by radiometric Assay</t>
-        </is>
-      </c>
-      <c r="T299" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>CHEMBL359963</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G300" t="n">
-        <v>330.4</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>5</v>
-      </c>
-      <c r="J300" t="n">
-        <v>4</v>
-      </c>
-      <c r="K300" t="n">
-        <v>4</v>
-      </c>
-      <c r="L300" t="n">
-        <v>4</v>
-      </c>
-      <c r="M300" t="n">
-        <v>68</v>
-      </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q300" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R300" t="inlineStr">
-        <is>
-          <t>CHEMBL1961900</t>
-        </is>
-      </c>
-      <c r="S300" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T300" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>CHEMBL365663</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
-        <v>338.82</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>4</v>
-      </c>
-      <c r="J301" t="n">
-        <v>2</v>
-      </c>
-      <c r="K301" t="n">
-        <v>4</v>
-      </c>
-      <c r="L301" t="n">
-        <v>4</v>
-      </c>
-      <c r="M301" t="n">
-        <v>64.69</v>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q301" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="R301" t="inlineStr">
-        <is>
-          <t>CHEMBL1961910</t>
-        </is>
-      </c>
-      <c r="S301" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>CHEMBL397570</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>0</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G302" t="n">
-        <v>300.36</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>2</v>
-      </c>
-      <c r="J302" t="n">
-        <v>2</v>
-      </c>
-      <c r="K302" t="n">
-        <v>3</v>
-      </c>
-      <c r="L302" t="n">
-        <v>2</v>
-      </c>
-      <c r="M302" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q302" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R302" t="inlineStr">
-        <is>
-          <t>CHEMBL1961911</t>
-        </is>
-      </c>
-      <c r="S302" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>CHEMBL4278763</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>0</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>469.57</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>5</v>
-      </c>
-      <c r="J303" t="n">
-        <v>4</v>
-      </c>
-      <c r="K303" t="n">
-        <v>6</v>
-      </c>
-      <c r="L303" t="n">
-        <v>5</v>
-      </c>
-      <c r="M303" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q303" t="n">
-        <v>2</v>
-      </c>
-      <c r="R303" t="inlineStr">
-        <is>
-          <t>CHEMBL4263911</t>
-        </is>
-      </c>
-      <c r="S303" t="inlineStr">
-        <is>
-          <t>Inhibition of PKC-BETA2 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>CHEMBL495902</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>0</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CC2)cc1-c1ccc2[nH]ncc2c1</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G304" t="n">
-        <v>291.35</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>2</v>
-      </c>
-      <c r="J304" t="n">
-        <v>3</v>
-      </c>
-      <c r="K304" t="n">
-        <v>4</v>
-      </c>
-      <c r="L304" t="n">
-        <v>3</v>
-      </c>
-      <c r="M304" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q304" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="R304" t="inlineStr">
-        <is>
-          <t>CHEMBL1961901</t>
-        </is>
-      </c>
-      <c r="S304" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T304" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
